--- a/contact/src/main/resources/contact.xlsx
+++ b/contact/src/main/resources/contact.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="198">
   <si>
     <t>Name</t>
   </si>
@@ -26,34 +26,586 @@
     <t>Mobile</t>
   </si>
   <si>
-    <t>vikas</t>
-  </si>
-  <si>
-    <t>pai</t>
+    <t>John Doe</t>
+  </si>
+  <si>
+    <t>john.doe@example.com</t>
+  </si>
+  <si>
+    <t>1990-01-01</t>
+  </si>
+  <si>
+    <t>1234567890</t>
+  </si>
+  <si>
+    <t>Jane Smith</t>
+  </si>
+  <si>
+    <t>jane.smith@example.com</t>
+  </si>
+  <si>
+    <t>1985-02-14</t>
+  </si>
+  <si>
+    <t>2345678901</t>
+  </si>
+  <si>
+    <t>Alice Johnson</t>
+  </si>
+  <si>
+    <t>alice.johnson@example.com</t>
+  </si>
+  <si>
+    <t>1992-03-03</t>
+  </si>
+  <si>
+    <t>3456789012</t>
+  </si>
+  <si>
+    <t>Bob Brown</t>
+  </si>
+  <si>
+    <t>bob.brown@example.com</t>
+  </si>
+  <si>
+    <t>1988-04-22</t>
+  </si>
+  <si>
+    <t>4567890123</t>
+  </si>
+  <si>
+    <t>Charlie Davis</t>
+  </si>
+  <si>
+    <t>charlie.davis@example.com</t>
+  </si>
+  <si>
+    <t>1995-05-15</t>
+  </si>
+  <si>
+    <t>5678901234</t>
+  </si>
+  <si>
+    <t>Diana Miller</t>
+  </si>
+  <si>
+    <t>diana.miller@example.com</t>
+  </si>
+  <si>
+    <t>1993-06-25</t>
+  </si>
+  <si>
+    <t>6789012345</t>
+  </si>
+  <si>
+    <t>Edward Wilson</t>
+  </si>
+  <si>
+    <t>edward.wilson@example.com</t>
+  </si>
+  <si>
+    <t>1987-07-07</t>
+  </si>
+  <si>
+    <t>7890123456</t>
+  </si>
+  <si>
+    <t>Fiona Clark</t>
+  </si>
+  <si>
+    <t>fiona.clark@example.com</t>
+  </si>
+  <si>
+    <t>1991-08-19</t>
+  </si>
+  <si>
+    <t>8901234567</t>
+  </si>
+  <si>
+    <t>George Martinez</t>
+  </si>
+  <si>
+    <t>george.martinez@example.com</t>
+  </si>
+  <si>
+    <t>1994-09-30</t>
+  </si>
+  <si>
+    <t>9012345678</t>
+  </si>
+  <si>
+    <t>Helen Lee</t>
+  </si>
+  <si>
+    <t>helen.lee@example.com</t>
+  </si>
+  <si>
+    <t>1990-10-10</t>
+  </si>
+  <si>
+    <t>0123456789</t>
+  </si>
+  <si>
+    <t>Ian Walker</t>
+  </si>
+  <si>
+    <t>ian.walker@example.com</t>
+  </si>
+  <si>
+    <t>1986-11-11</t>
+  </si>
+  <si>
+    <t>1234509876</t>
+  </si>
+  <si>
+    <t>Judy Hall</t>
+  </si>
+  <si>
+    <t>judy.hall@example.com</t>
+  </si>
+  <si>
+    <t>1992-12-12</t>
+  </si>
+  <si>
+    <t>2345608765</t>
+  </si>
+  <si>
+    <t>Kevin Young</t>
+  </si>
+  <si>
+    <t>kevin.young@example.com</t>
+  </si>
+  <si>
+    <t>1989-01-13</t>
+  </si>
+  <si>
+    <t>3456707654</t>
+  </si>
+  <si>
+    <t>Laura Hernandez</t>
+  </si>
+  <si>
+    <t>laura.hernandez@example.com</t>
+  </si>
+  <si>
+    <t>1993-02-14</t>
+  </si>
+  <si>
+    <t>4567806543</t>
+  </si>
+  <si>
+    <t>Mike King</t>
+  </si>
+  <si>
+    <t>mike.king@example.com</t>
+  </si>
+  <si>
+    <t>1988-03-15</t>
+  </si>
+  <si>
+    <t>5678905432</t>
+  </si>
+  <si>
+    <t>Nina Wright</t>
+  </si>
+  <si>
+    <t>nina.wright@example.com</t>
+  </si>
+  <si>
+    <t>1991-04-16</t>
+  </si>
+  <si>
+    <t>6789004321</t>
+  </si>
+  <si>
+    <t>Oscar Scott</t>
+  </si>
+  <si>
+    <t>oscar.scott@example.com</t>
+  </si>
+  <si>
+    <t>1994-05-17</t>
+  </si>
+  <si>
+    <t>7890103210</t>
+  </si>
+  <si>
+    <t>Paula Green</t>
+  </si>
+  <si>
+    <t>paula.green@example.com</t>
+  </si>
+  <si>
+    <t>1987-06-18</t>
+  </si>
+  <si>
+    <t>8901202109</t>
+  </si>
+  <si>
+    <t>Quincy Adams</t>
+  </si>
+  <si>
+    <t>quincy.adams@example.com</t>
+  </si>
+  <si>
+    <t>1990-07-19</t>
+  </si>
+  <si>
+    <t>9012301098</t>
+  </si>
+  <si>
+    <t>Rachel Baker</t>
+  </si>
+  <si>
+    <t>rachel.baker@example.com</t>
+  </si>
+  <si>
+    <t>1995-08-20</t>
+  </si>
+  <si>
+    <t>0123400987</t>
+  </si>
+  <si>
+    <t>Steve Phillips</t>
+  </si>
+  <si>
+    <t>steve.phillips@example.com</t>
+  </si>
+  <si>
+    <t>1992-09-21</t>
+  </si>
+  <si>
+    <t>1234509870</t>
+  </si>
+  <si>
+    <t>Tina Evans</t>
+  </si>
+  <si>
+    <t>tina.evans@example.com</t>
+  </si>
+  <si>
+    <t>1986-10-22</t>
+  </si>
+  <si>
+    <t>2345608761</t>
+  </si>
+  <si>
+    <t>Ulysses Turner</t>
+  </si>
+  <si>
+    <t>ulysses.turner@example.com</t>
+  </si>
+  <si>
+    <t>1989-11-23</t>
+  </si>
+  <si>
+    <t>3456707652</t>
+  </si>
+  <si>
+    <t>Vera Morgan</t>
+  </si>
+  <si>
+    <t>vera.morgan@example.com</t>
+  </si>
+  <si>
+    <t>1993-12-24</t>
+  </si>
+  <si>
+    <t>Wade Rogers</t>
+  </si>
+  <si>
+    <t>wade.rogers@example.com</t>
+  </si>
+  <si>
+    <t>1988-01-25</t>
+  </si>
+  <si>
+    <t>5678905434</t>
+  </si>
+  <si>
+    <t>Xena Reed</t>
+  </si>
+  <si>
+    <t>xena.reed@example.com</t>
+  </si>
+  <si>
+    <t>1991-02-26</t>
+  </si>
+  <si>
+    <t>6789004325</t>
+  </si>
+  <si>
+    <t>Yvonne Stewart</t>
+  </si>
+  <si>
+    <t>yvonne.stewart@example.com</t>
+  </si>
+  <si>
+    <t>1994-03-27</t>
+  </si>
+  <si>
+    <t>7890103216</t>
+  </si>
+  <si>
+    <t>Zachary Perez</t>
+  </si>
+  <si>
+    <t>zachary.perez@example.com</t>
+  </si>
+  <si>
+    <t>1987-04-28</t>
+  </si>
+  <si>
+    <t>8901202107</t>
+  </si>
+  <si>
+    <t>Anna Collins</t>
+  </si>
+  <si>
+    <t>anna.collins@example.com</t>
+  </si>
+  <si>
+    <t>1990-05-29</t>
+  </si>
+  <si>
+    <t>9012301096</t>
+  </si>
+  <si>
+    <t>Brian Fisher</t>
+  </si>
+  <si>
+    <t>brian.fisher@example.com</t>
+  </si>
+  <si>
+    <t>1995-06-30</t>
+  </si>
+  <si>
+    <t>0123400985</t>
+  </si>
+  <si>
+    <t>Catherine Russell</t>
+  </si>
+  <si>
+    <t>catherine.russell@example.com</t>
+  </si>
+  <si>
+    <t>1992-07-01</t>
+  </si>
+  <si>
+    <t>1234509874</t>
+  </si>
+  <si>
+    <t>David Sanders</t>
+  </si>
+  <si>
+    <t>david.sanders@example.com</t>
+  </si>
+  <si>
+    <t>1986-08-02</t>
+  </si>
+  <si>
+    <t>2345608763</t>
+  </si>
+  <si>
+    <t>Emily Torres</t>
+  </si>
+  <si>
+    <t>emily.torres@example.com</t>
+  </si>
+  <si>
+    <t>1989-09-03</t>
+  </si>
+  <si>
+    <t>Frank Bennett</t>
+  </si>
+  <si>
+    <t>frank.bennett@example.com</t>
+  </si>
+  <si>
+    <t>1993-10-04</t>
+  </si>
+  <si>
+    <t>4567806541</t>
+  </si>
+  <si>
+    <t>Grace Price</t>
+  </si>
+  <si>
+    <t>grace.price@example.com</t>
+  </si>
+  <si>
+    <t>1988-11-05</t>
+  </si>
+  <si>
+    <t>5678905430</t>
+  </si>
+  <si>
+    <t>Henry Rivera</t>
+  </si>
+  <si>
+    <t>henry.rivera@example.com</t>
+  </si>
+  <si>
+    <t>1991-12-06</t>
+  </si>
+  <si>
+    <t>6789004329</t>
+  </si>
+  <si>
+    <t>Isabella Cook</t>
+  </si>
+  <si>
+    <t>isabella.cook@example.com</t>
+  </si>
+  <si>
+    <t>1994-01-07</t>
+  </si>
+  <si>
+    <t>7890103218</t>
+  </si>
+  <si>
+    <t>Jack Watson</t>
+  </si>
+  <si>
+    <t>jack.watson@example.com</t>
+  </si>
+  <si>
+    <t>1987-02-08</t>
+  </si>
+  <si>
+    <t>8901202103</t>
+  </si>
+  <si>
+    <t>Karen Brooks</t>
+  </si>
+  <si>
+    <t>karen.brooks@example.com</t>
+  </si>
+  <si>
+    <t>1990-03-09</t>
+  </si>
+  <si>
+    <t>9012301092</t>
+  </si>
+  <si>
+    <t>Larry Bell</t>
+  </si>
+  <si>
+    <t>larry.bell@example.com</t>
+  </si>
+  <si>
+    <t>1995-04-10</t>
+  </si>
+  <si>
+    <t>0123400981</t>
+  </si>
+  <si>
+    <t>Megan Murphy</t>
+  </si>
+  <si>
+    <t>megan.murphy@example.com</t>
+  </si>
+  <si>
+    <t>1992-05-11</t>
+  </si>
+  <si>
+    <t>1234509878</t>
+  </si>
+  <si>
+    <t>Nathan Rivera</t>
+  </si>
+  <si>
+    <t>nathan.rivera@example.com</t>
+  </si>
+  <si>
+    <t>1986-06-12</t>
+  </si>
+  <si>
+    <t>2345608769</t>
+  </si>
+  <si>
+    <t>Olivia Ward</t>
+  </si>
+  <si>
+    <t>olivia.ward@example.com</t>
+  </si>
+  <si>
+    <t>1989-07-13</t>
+  </si>
+  <si>
+    <t>3456707658</t>
+  </si>
+  <si>
+    <t>Patrick Cox</t>
+  </si>
+  <si>
+    <t>patrick.cox@example.com</t>
+  </si>
+  <si>
+    <t>1993-08-14</t>
+  </si>
+  <si>
+    <t>4567806547</t>
+  </si>
+  <si>
+    <t>Quinn Diaz</t>
+  </si>
+  <si>
+    <t>quinn.diaz@example.com</t>
+  </si>
+  <si>
+    <t>1988-09-15</t>
+  </si>
+  <si>
+    <t>5678905436</t>
+  </si>
+  <si>
+    <t>Rita Richardson</t>
+  </si>
+  <si>
+    <t>rita.richardson@example.com</t>
+  </si>
+  <si>
+    <t>1991-10-16</t>
+  </si>
+  <si>
+    <t>6789004327</t>
+  </si>
+  <si>
+    <t>Samuel Reed</t>
+  </si>
+  <si>
+    <t>samuel.reed@example.com</t>
+  </si>
+  <si>
+    <t>1994-11-17</t>
+  </si>
+  <si>
+    <t>7890103214</t>
+  </si>
+  <si>
+    <t>Teresa Howard</t>
+  </si>
+  <si>
+    <t>teresa.howard@example.com</t>
+  </si>
+  <si>
+    <t>1987-12-18</t>
+  </si>
+  <si>
+    <t>8901202101</t>
+  </si>
+  <si>
+    <t>Vikas</t>
+  </si>
+  <si>
+    <t>pai@email.com</t>
   </si>
   <si>
     <t>2002-10-14</t>
   </si>
   <si>
-    <t>9999999999</t>
-  </si>
-  <si>
-    <t>ram</t>
-  </si>
-  <si>
-    <t>sam@gmail.com</t>
-  </si>
-  <si>
-    <t>1111111111</t>
-  </si>
-  <si>
-    <t>cam</t>
-  </si>
-  <si>
-    <t>pam@gmail.com</t>
-  </si>
-  <si>
-    <t>999999999</t>
+    <t>9008819827</t>
   </si>
 </sst>
 </file>
@@ -98,7 +650,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -140,24 +692,668 @@
         <v>9</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>13</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="D17" t="s" s="0">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="D18" t="s" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="D19" t="s" s="0">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="D20" t="s" s="0">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="D21" t="s" s="0">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="D22" t="s" s="0">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="D23" t="s" s="0">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="D24" t="s" s="0">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="D25" t="s" s="0">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="D26" t="s" s="0">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="D27" t="s" s="0">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="D28" t="s" s="0">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="D29" t="s" s="0">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="D30" t="s" s="0">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="D31" t="s" s="0">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="C32" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="D32" t="s" s="0">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="C33" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="D33" t="s" s="0">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="C34" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="D34" t="s" s="0">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="C35" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="D35" t="s" s="0">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="C36" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="D36" t="s" s="0">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="C37" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="D37" t="s" s="0">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>147</v>
+      </c>
+      <c r="C38" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="D38" t="s" s="0">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="C39" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="D39" t="s" s="0">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="C40" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="D40" t="s" s="0">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="C41" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="D41" t="s" s="0">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="C42" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="D42" t="s" s="0">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="C43" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="D43" t="s" s="0">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="C44" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="D44" t="s" s="0">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>174</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="C45" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="D45" t="s" s="0">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>179</v>
+      </c>
+      <c r="C46" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="D46" t="s" s="0">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="B47" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="C47" t="s" s="0">
+        <v>184</v>
+      </c>
+      <c r="D47" t="s" s="0">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="B48" t="s" s="0">
+        <v>187</v>
+      </c>
+      <c r="C48" t="s" s="0">
+        <v>188</v>
+      </c>
+      <c r="D48" t="s" s="0">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>190</v>
+      </c>
+      <c r="B49" t="s" s="0">
+        <v>191</v>
+      </c>
+      <c r="C49" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="D49" t="s" s="0">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="B50" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="C50" t="s" s="0">
+        <v>196</v>
+      </c>
+      <c r="D50" t="s" s="0">
+        <v>197</v>
       </c>
     </row>
   </sheetData>
